--- a/src/ExcelsiorClosedXml.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Render.verified.xlsx
@@ -42,7 +42,7 @@
     <x:t>John Doe</x:t>
   </x:si>
   <x:si>
-    <x:t>📧 john@company.com</x:t>
+    <x:t>✉ john@company.com</x:t>
   </x:si>
   <x:si>
     <x:t>✓ Active</x:t>
@@ -54,13 +54,13 @@
     <x:t>Jane Smith</x:t>
   </x:si>
   <x:si>
-    <x:t>📧 jane@company.com</x:t>
+    <x:t>✉ jane@company.com</x:t>
   </x:si>
   <x:si>
     <x:t>Bob Johnson</x:t>
   </x:si>
   <x:si>
-    <x:t>📧 bob@company.com</x:t>
+    <x:t>✉ bob@company.com</x:t>
   </x:si>
   <x:si>
     <x:t>✗ Inactive</x:t>
@@ -72,7 +72,7 @@
     <x:t>Alice Brown</x:t>
   </x:si>
   <x:si>
-    <x:t>📧 alice@company.com</x:t>
+    <x:t>✉ alice@company.com</x:t>
   </x:si>
   <x:si>
     <x:t>Contract</x:t>

--- a/src/ExcelsiorClosedXml.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Render.verified.xlsx
@@ -39,10 +39,10 @@
     <x:t>Status</x:t>
   </x:si>
   <x:si>
-    <x:t>John Doe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✉ john@company.com</x:t>
+    <x:t>JOHN DOE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>john@company.com</x:t>
   </x:si>
   <x:si>
     <x:t>✓ Active</x:t>
@@ -51,16 +51,16 @@
     <x:t>Full Time</x:t>
   </x:si>
   <x:si>
-    <x:t>Jane Smith</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✉ jane@company.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bob Johnson</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✉ bob@company.com</x:t>
+    <x:t>JANE SMITH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jane@company.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BOB JOHNSON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bob@company.com</x:t>
   </x:si>
   <x:si>
     <x:t>✗ Inactive</x:t>
@@ -69,10 +69,10 @@
     <x:t>Part Time</x:t>
   </x:si>
   <x:si>
-    <x:t>Alice Brown</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✉ alice@company.com</x:t>
+    <x:t>ALICE BROWN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alice@company.com</x:t>
   </x:si>
   <x:si>
     <x:t>Contract</x:t>
@@ -447,8 +447,8 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="21.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="14.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="19.996339" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>

--- a/src/ExcelsiorClosedXml.Tests/Tests.Render.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.Render.verified.xlsx
@@ -45,7 +45,7 @@
     <x:t>john@company.com</x:t>
   </x:si>
   <x:si>
-    <x:t>✓ Active</x:t>
+    <x:t>Active</x:t>
   </x:si>
   <x:si>
     <x:t>Full Time</x:t>
@@ -63,7 +63,7 @@
     <x:t>bob@company.com</x:t>
   </x:si>
   <x:si>
-    <x:t>✗ Inactive</x:t>
+    <x:t>Inactive</x:t>
   </x:si>
   <x:si>
     <x:t>Part Time</x:t>
@@ -136,11 +136,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -446,13 +446,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="14.139196" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.996339" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.424911" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="16.139196" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
